--- a/iselUssSyncV2/OutputWSLorientation/20220524_1255_D50L474W30Q11.0UNaNH47.1.5G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1255_D50L474W30Q11.0UNaNH47.1.5G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.021378219686553752</v>
+        <v>0.010689109843276876</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57452322838413306</v>
+        <v>0.28726161419206653</v>
       </c>
       <c r="P2" s="0">
         <v>116.60090666666657</v>
@@ -356,10 +356,10 @@
         <v>1.1438548943999993</v>
       </c>
       <c r="R2" s="0">
-        <v>1.2245369979952156</v>
+        <v>2.4490739959904313</v>
       </c>
       <c r="S2" s="0">
-        <v>0.22167852442456765</v>
+        <v>1.2441198098410813</v>
       </c>
       <c r="T2" s="0">
         <v>0.027036723532058101</v>
@@ -383,16 +383,16 @@
         <v>140000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.9341121552657804</v>
+        <v>0.4670560776328902</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.1599716182215403</v>
+        <v>0.91940895511189613</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.8950610037413909</v>
+        <v>1.9475305018706954</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.8795074237544127</v>
+        <v>0.93975371187720635</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.0550326219629316</v>
+        <v>2.8669394569825917</v>
       </c>
     </row>
   </sheetData>
